--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/без_пробілів/частоти_букв_без_пробілів.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/без_пробілів/частоти_букв_без_пробілів.xlsx
@@ -448,71 +448,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>о</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03001078442027471</v>
+        <v>0.1106464800153824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>и</t>
+          <t>а</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06844010466739678</v>
+        <v>0.08638237039885635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>х</t>
+          <t>е</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008227927468503642</v>
+        <v>0.08129948084302399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>а</t>
+          <t>и</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08638237039885635</v>
+        <v>0.06844010466739678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>л</t>
+          <t>н</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05254269878027371</v>
+        <v>0.06412466455436937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ф</t>
+          <t>т</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002160228061228755</v>
+        <v>0.06029912136234816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>н</t>
+          <t>л</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06412466455436937</v>
+        <v>0.05254269878027371</v>
       </c>
     </row>
     <row r="9">
@@ -528,141 +528,141 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ь</t>
+          <t>р</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01808940200807577</v>
+        <v>0.04746482523387144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>е</t>
+          <t>в</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08129948084302399</v>
+        <v>0.04709364053604421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>в</t>
+          <t>к</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04709364053604421</v>
+        <v>0.03657674076427263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ч</t>
+          <t>у</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01590242189655316</v>
+        <v>0.03005425650200222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>б</t>
+          <t>м</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01548609311385505</v>
+        <v>0.03001078442027471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>у</t>
+          <t>п</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03005425650200222</v>
+        <v>0.02843074144979393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>г</t>
+          <t>д</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01915279600725649</v>
+        <v>0.02810971684626767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>к</t>
+          <t>г</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03657674076427263</v>
+        <v>0.01915279600725649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>о</t>
+          <t>я</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1106464800153824</v>
+        <v>0.0190691958500882</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>т</t>
+          <t>ь</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06029912136234816</v>
+        <v>0.01808940200807577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>р</t>
+          <t>з</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04746482523387144</v>
+        <v>0.01777673742026635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>п</t>
+          <t>ы</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02843074144979393</v>
+        <v>0.01729687251812033</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>я</t>
+          <t>ч</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0190691958500882</v>
+        <v>0.01590242189655316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>д</t>
+          <t>б</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02810971684626767</v>
+        <v>0.01548609311385505</v>
       </c>
     </row>
     <row r="24">
@@ -688,71 +688,71 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>з</t>
+          <t>ш</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01777673742026635</v>
+        <v>0.008731200414656779</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ц</t>
+          <t>х</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.003317254236437965</v>
+        <v>0.008227927468503642</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ы</t>
+          <t>ю</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01729687251812033</v>
+        <v>0.005280185926749542</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ш</t>
+          <t>щ</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.008731200414656779</v>
+        <v>0.003537958651362264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ю</t>
+          <t>ц</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.005280185926749542</v>
+        <v>0.003317254236437965</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>щ</t>
+          <t>э</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003537958651362264</v>
+        <v>0.003071469774363176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>э</t>
+          <t>ф</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003071469774363176</v>
+        <v>0.002160228061228755</v>
       </c>
     </row>
   </sheetData>
